--- a/3 - Amata Nigriceps/Amata analysis/data/Amata Measurements.xlsx
+++ b/3 - Amata Nigriceps/Amata analysis/data/Amata Measurements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mqoutlook-my.sharepoint.com/personal/christopher_irving_mq_edu_au/Documents/Documents/Preliminary Analysis 2023 (Flight Cage vs Rest)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mqoutlook-my.sharepoint.com/personal/christopher_irving_mq_edu_au/Documents/Documents/MultiComponentSignals/3 - Amata Nigriceps/Amata analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{9B90DE89-0221-46A4-8788-D9F92808CD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A220C980-03BA-494E-8283-E73484EC4B6D}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{9B90DE89-0221-46A4-8788-D9F92808CD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5473443A-A890-49BC-B5BB-A5ACA9247753}"/>
   <bookViews>
-    <workbookView xWindow="-21060" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specimen Database" sheetId="1" r:id="rId1"/>
@@ -1442,7 +1442,7 @@
   </sheetPr>
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -1698,7 +1698,7 @@
     </row>
     <row r="7" spans="1:15" ht="14">
       <c r="A7" s="1">
-        <f t="shared" ref="A7:A23" si="0">SUM(A6+1)</f>
+        <f t="shared" ref="A7:A22" si="0">SUM(A6+1)</f>
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -5521,9 +5521,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -7166,6 +7168,11 @@
         <v>815</v>
       </c>
     </row>
+    <row r="35" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A35" s="1">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7178,7 +7185,9 @@
   </sheetPr>
   <dimension ref="A1:Y219"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
